--- a/data/trans_camb/P40_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-5,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-5,77</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,51</t>
+          <t>-5,47; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,53</t>
+          <t>-8,89; -0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -1,34</t>
+          <t>-10,09; -1,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 6,63</t>
+          <t>-9,21; -0,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,62</t>
+          <t>5,58; 14,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -1,91</t>
+          <t>-1,3; 7,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -2,83</t>
+          <t>-5,23; 2,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 2,41</t>
+          <t>-8,59; -2,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,99</t>
+          <t>-9,34; -2,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -2,33</t>
+          <t>-7,12; 0,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -3,22</t>
+          <t>2,23; 9,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,98</t>
+          <t>-0,05; 6,97</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 1,72</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; -2,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; -2,8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; -1,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 10,65</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 6,02</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-8,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,75%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>-38,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>-32,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>102,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,43%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,23%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>-31,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-36,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-32,52%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-8,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-32,84%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-37,44%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-26,98%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>69,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>20,39%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 30,01</t>
+          <t>-32,41; 30,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,92; -3,47</t>
+          <t>-52,51; -5,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,3; -8,94</t>
+          <t>-59,58; -14,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 57,43</t>
+          <t>-55,59; -3,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 17,8</t>
+          <t>46,11; 188,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,61; -11,27</t>
+          <t>-7,91; 52,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,88; -18,97</t>
+          <t>-29,3; 16,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 15,95</t>
+          <t>-47,04; -12,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 14,61</t>
+          <t>-50,29; -19,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-45,3; -16,31</t>
+          <t>-39,01; 1,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -22,96</t>
+          <t>14,83; 87,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 21,6</t>
+          <t>-0,26; 50,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-25,19; 12,81</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-44,63; -17,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-48,75; -19,48</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-41,95; -10,38</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>37,05; 109,32</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 41,14</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-6,19</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-5,11</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-8,12</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,08</t>
+          <t>-8,11; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -1,74</t>
+          <t>-11,29; -1,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 0,3</t>
+          <t>-9,87; 1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 3,36</t>
+          <t>-13,44; -4,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 4,59</t>
+          <t>0,31; 10,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; -1,25</t>
+          <t>-7,03; 6,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -0,7</t>
+          <t>-5,4; 4,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -0,98</t>
+          <t>-10,57; -1,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,03</t>
+          <t>-10,12; -0,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -2,81</t>
+          <t>-12,04; -2,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -1,42</t>
+          <t>-2,66; 9,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,59</t>
+          <t>-5,08; 8,54</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 2,62</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; -2,78</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; -1,15</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; -4,36</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 8,14</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 5,75</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,0%</t>
+          <t>-37,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,79%</t>
+          <t>-27,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>-48,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,65%</t>
+          <t>-26,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-31,33%</t>
+          <t>-34,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-26,44%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-23,95%</t>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-31,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-25,77%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-40,93%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 45,44</t>
+          <t>-39,6; 19,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,7; -10,13</t>
+          <t>-55,07; -9,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 2,8</t>
+          <t>-48,47; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 21,69</t>
+          <t>-66,45; -29,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 24,12</t>
+          <t>-0,43; 135,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; -5,39</t>
+          <t>-37,51; 63,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,18; -3,21</t>
+          <t>-23,65; 25,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,17; -4,06</t>
+          <t>-43,96; -7,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 21,91</t>
+          <t>-42,18; -4,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-44,75; -15,26</t>
+          <t>-51,14; -15,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -7,8</t>
+          <t>-16,35; 74,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-41,54; -3,18</t>
+          <t>-26,89; 68,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-22,37; 14,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; -15,41</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; -6,05</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-52,04; -25,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 77,21</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 44,99</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,12</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,33</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-14,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,25</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,47</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-9,92</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,82</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-12,39</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-10,02</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-10,24</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-13,53</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>-13,42</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 12,42</t>
+          <t>-14,58; 14,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,87; -0,89</t>
+          <t>-23,64; -1,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,51; -9,24</t>
+          <t>-31,21; -9,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-27,64; -4,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 5,68</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -2,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -0,63</t>
+          <t>-13,79; 5,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-18,47; -1,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-18,45; -1,79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; -3,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-11,47; 5,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-17,87; -4,03</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-21,13; -7,59</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 6,74</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-17,49; -4,03</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-20,51; -7,25</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; -6,99</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,74%</t>
+          <t>-51,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-85,16%</t>
+          <t>-84,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-70,76%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-16,7%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,22%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-38,98%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-38,57%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-48,69%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-13,07%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-43,81%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-58,68%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-10,2%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-44,75%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-59,17%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-58,69%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 98,38</t>
+          <t>-55,72; 121,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,64; -1,29</t>
+          <t>-75,9; -4,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-95,85; -64,49</t>
+          <t>-95,52; -62,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-88,4; -29,26</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-45,79; 27,35</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -8,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,06; -3,79</t>
+          <t>-46,01; 25,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-59,83; -4,72</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-60,39; -5,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-71,56; -11,43</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-43,31; 29,61</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-61,55; -20,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-73,2; -38,75</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-39,22; 36,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-62,79; -20,68</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-73,83; -38,2</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-75,27; -34,75</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-6,14</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-6,45</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,01</t>
+          <t>-5,25; 2,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -3,38</t>
+          <t>-9,18; -3,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -3,9</t>
+          <t>-9,47; -3,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,68</t>
+          <t>-10,83; -4,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,52</t>
+          <t>6,1; 12,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -3,44</t>
+          <t>-1,43; 6,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -3,54</t>
+          <t>-4,22; 1,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -1,35</t>
+          <t>-8,61; -3,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,54</t>
+          <t>-8,97; -3,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -4,07</t>
+          <t>-9,34; -3,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -4,35</t>
+          <t>1,73; 7,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,13</t>
+          <t>-0,13; 6,4</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 1,09</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; -4,27</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; -4,36</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; -4,46</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 9,36</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 4,93</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,21%</t>
+          <t>-38,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,26%</t>
+          <t>-40,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>-45,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>102,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-33,8%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-34,03%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-35,75%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-37,82%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 20,57</t>
+          <t>-29,46; 13,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,54; -21,92</t>
+          <t>-50,46; -21,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -25,68</t>
+          <t>-52,79; -21,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 18,28</t>
+          <t>-58,77; -29,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 8,91</t>
+          <t>57,87; 169,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -18,81</t>
+          <t>-8,12; 44,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,88; -19,26</t>
+          <t>-20,19; 9,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,55; -7,13</t>
+          <t>-40,89; -17,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 8,96</t>
+          <t>-42,63; -19,36</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -24,1</t>
+          <t>-43,5; -18,73</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -25,94</t>
+          <t>11,23; 63,73</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 0,89</t>
+          <t>-0,93; 45,06</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-19,51; 6,71</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-42,66; -25,25</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-43,98; -25,31</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-45,92; -26,01</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>41,22; 90,21</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 32,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
